--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_storagemod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S15/S15_storagemod.xlsx
@@ -14,186 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.016238224043280458</t>
-  </si>
-  <si>
-    <t>0.02530506036886595</t>
-  </si>
-  <si>
-    <t>0.04073357971285107</t>
-  </si>
-  <si>
-    <t>0.06242869746531905</t>
-  </si>
-  <si>
-    <t>0.09885313497810402</t>
-  </si>
-  <si>
-    <t>0.16592112298978373</t>
-  </si>
-  <si>
-    <t>0.23570801556027052</t>
-  </si>
-  <si>
-    <t>0.31148836152743925</t>
-  </si>
-  <si>
-    <t>0.4185928532964149</t>
-  </si>
-  <si>
-    <t>0.6004256273820211</t>
-  </si>
-  <si>
-    <t>0.8611842012388868</t>
-  </si>
-  <si>
-    <t>1.2349747486917906</t>
-  </si>
-  <si>
-    <t>1.770948541341759</t>
-  </si>
-  <si>
-    <t>2.5394498858546832</t>
-  </si>
-  <si>
-    <t>3.640818371421138</t>
-  </si>
-  <si>
-    <t>5.219513942501879</t>
-  </si>
-  <si>
-    <t>7.480735404507842</t>
-  </si>
-  <si>
-    <t>10.72218521588157</t>
-  </si>
-  <si>
-    <t>15.367298840797572</t>
-  </si>
-  <si>
-    <t>22.02281497298646</t>
-  </si>
-  <si>
-    <t>31.561237475502214</t>
-  </si>
-  <si>
-    <t>45.21861120866475</t>
-  </si>
-  <si>
-    <t>64.79099291221792</t>
-  </si>
-  <si>
-    <t>92.83809294668669</t>
-  </si>
-  <si>
-    <t>133.01373462056338</t>
-  </si>
-  <si>
-    <t>190.55491514896983</t>
-  </si>
-  <si>
-    <t>272.939961514353</t>
-  </si>
-  <si>
-    <t>392.43116188034526</t>
-  </si>
-  <si>
-    <t>499.7167667519774</t>
-  </si>
-  <si>
-    <t>3.980498711402541</t>
-  </si>
-  <si>
-    <t>8.811269697539856</t>
-  </si>
-  <si>
-    <t>18.3977378881535</t>
-  </si>
-  <si>
-    <t>37.212283390245474</t>
-  </si>
-  <si>
-    <t>75.30281521931836</t>
-  </si>
-  <si>
-    <t>134.53086912979614</t>
-  </si>
-  <si>
-    <t>219.29567526191354</t>
-  </si>
-  <si>
-    <t>312.6748977373748</t>
-  </si>
-  <si>
-    <t>501.3704875316164</t>
-  </si>
-  <si>
-    <t>789.6089621290471</t>
-  </si>
-  <si>
-    <t>1220.9411813587694</t>
-  </si>
-  <si>
-    <t>1804.9993750647448</t>
-  </si>
-  <si>
-    <t>2645.8696795836604</t>
-  </si>
-  <si>
-    <t>3845.6426288659295</t>
-  </si>
-  <si>
-    <t>5345.545959156873</t>
-  </si>
-  <si>
-    <t>7305.22123084623</t>
-  </si>
-  <si>
-    <t>9307.31877205633</t>
-  </si>
-  <si>
-    <t>12035.798666726758</t>
-  </si>
-  <si>
-    <t>15334.37678718187</t>
-  </si>
-  <si>
-    <t>19085.665879174427</t>
-  </si>
-  <si>
-    <t>23838.90957399692</t>
-  </si>
-  <si>
-    <t>27740.08518695993</t>
-  </si>
-  <si>
-    <t>32949.506742790014</t>
-  </si>
-  <si>
-    <t>39471.25767299056</t>
-  </si>
-  <si>
-    <t>46126.21602490438</t>
-  </si>
-  <si>
-    <t>52416.185755481696</t>
-  </si>
-  <si>
-    <t>56884.05117569441</t>
-  </si>
-  <si>
-    <t>64557.129897818435</t>
-  </si>
-  <si>
-    <t>74227.09200597802</t>
+    <t>Storage modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -566,235 +392,235 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="A2">
+        <v>0.01623822404328046</v>
+      </c>
+      <c r="B2">
+        <v>3.980498711402541</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
+      <c r="A3">
+        <v>0.02530506036886595</v>
+      </c>
+      <c r="B3">
+        <v>8.811269697539856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="A4">
+        <v>0.04073357971285107</v>
+      </c>
+      <c r="B4">
+        <v>18.3977378881535</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="A5">
+        <v>0.06242869746531905</v>
+      </c>
+      <c r="B5">
+        <v>37.21228339024547</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
+      <c r="A6">
+        <v>0.09885313497810402</v>
+      </c>
+      <c r="B6">
+        <v>75.30281521931836</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+      <c r="A7">
+        <v>0.1659211229897837</v>
+      </c>
+      <c r="B7">
+        <v>134.5308691297961</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
+      <c r="A8">
+        <v>0.2357080155602705</v>
+      </c>
+      <c r="B8">
+        <v>219.2956752619135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="A9">
+        <v>0.3114883615274393</v>
+      </c>
+      <c r="B9">
+        <v>312.6748977373748</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
+      <c r="A10">
+        <v>0.4185928532964149</v>
+      </c>
+      <c r="B10">
+        <v>501.3704875316164</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="A11">
+        <v>0.6004256273820211</v>
+      </c>
+      <c r="B11">
+        <v>789.6089621290471</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
+      <c r="A12">
+        <v>0.8611842012388868</v>
+      </c>
+      <c r="B12">
+        <v>1220.941181358769</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+      <c r="A13">
+        <v>1.234974748691791</v>
+      </c>
+      <c r="B13">
+        <v>1804.999375064745</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
+      <c r="A14">
+        <v>1.770948541341759</v>
+      </c>
+      <c r="B14">
+        <v>2645.86967958366</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
+      <c r="A15">
+        <v>2.539449885854683</v>
+      </c>
+      <c r="B15">
+        <v>3845.64262886593</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
+      <c r="A16">
+        <v>3.640818371421138</v>
+      </c>
+      <c r="B16">
+        <v>5345.545959156873</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
+      <c r="A17">
+        <v>5.219513942501879</v>
+      </c>
+      <c r="B17">
+        <v>7305.22123084623</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
+      <c r="A18">
+        <v>7.480735404507842</v>
+      </c>
+      <c r="B18">
+        <v>9307.318772056329</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
+      <c r="A19">
+        <v>10.72218521588157</v>
+      </c>
+      <c r="B19">
+        <v>12035.79866672676</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="A20">
+        <v>15.36729884079757</v>
+      </c>
+      <c r="B20">
+        <v>15334.37678718187</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
+      <c r="A21">
+        <v>22.02281497298646</v>
+      </c>
+      <c r="B21">
+        <v>19085.66587917443</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
+      <c r="A22">
+        <v>31.56123747550221</v>
+      </c>
+      <c r="B22">
+        <v>23838.90957399692</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
+      <c r="A23">
+        <v>45.21861120866475</v>
+      </c>
+      <c r="B23">
+        <v>27740.08518695993</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+      <c r="A24">
+        <v>64.79099291221792</v>
+      </c>
+      <c r="B24">
+        <v>32949.50674279001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
+      <c r="A25">
+        <v>92.83809294668669</v>
+      </c>
+      <c r="B25">
+        <v>39471.25767299056</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
+      <c r="A26">
+        <v>133.0137346205634</v>
+      </c>
+      <c r="B26">
+        <v>46126.21602490438</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="A27">
+        <v>190.5549151489698</v>
+      </c>
+      <c r="B27">
+        <v>52416.1857554817</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
+      <c r="A28">
+        <v>272.939961514353</v>
+      </c>
+      <c r="B28">
+        <v>56884.05117569441</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
+      <c r="A29">
+        <v>392.4311618803453</v>
+      </c>
+      <c r="B29">
+        <v>64557.12989781843</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
+      <c r="A30">
+        <v>499.7167667519774</v>
+      </c>
+      <c r="B30">
+        <v>74227.09200597802</v>
       </c>
     </row>
   </sheetData>
